--- a/仕様書/キャラクターUI仕様.xlsx
+++ b/仕様書/キャラクターUI仕様.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>キャラクターのＵＩ仕様</t>
     <rPh sb="9" eb="11">
@@ -164,6 +164,34 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>オウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宝物を持っている時は、頭上に王冠的なフラグの絵を乗せる</t>
+    <rPh sb="0" eb="2">
+      <t>タカラモノ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ズジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>オウカン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ノ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -514,60 +542,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:C17"/>
+  <dimension ref="C3:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
         <v>9</v>
       </c>
